--- a/Pum.xlsx
+++ b/Pum.xlsx
@@ -330,9 +330,6 @@
     <t>Note</t>
   </si>
   <si>
-    <t>https://ran-ln.tk/saveIMG/bank.jpg</t>
-  </si>
-  <si>
     <t>PUM_001W</t>
   </si>
   <si>
@@ -643,13 +640,16 @@
   </si>
   <si>
     <t>รออัพเดทจากธนาคาร</t>
+  </si>
+  <si>
+    <t>https://ran-ln.tk/2019/saveIMG/uob/pum.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,6 +663,14 @@
       <color theme="1"/>
       <name val="Cordia New"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -709,10 +717,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -720,8 +729,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1002,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,34 +1033,34 @@
   <sheetData>
     <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>100</v>
@@ -1058,16 +1069,16 @@
         <v>101</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>102</v>
@@ -1075,13 +1086,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>29</v>
@@ -1099,16 +1110,16 @@
         <v>10500</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M2" s="1">
         <v>13.731427999999999</v>
@@ -1119,22 +1130,22 @@
       <c r="O2" s="1">
         <v>0</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>103</v>
+      <c r="P2" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>32</v>
@@ -1152,16 +1163,16 @@
         <v>10330</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M3" s="1">
         <v>13.747645</v>
@@ -1172,22 +1183,22 @@
       <c r="O3" s="1">
         <v>0</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>103</v>
+      <c r="P3" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>34</v>
@@ -1205,16 +1216,16 @@
         <v>20000</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M4" s="1">
         <v>13.367065999999999</v>
@@ -1225,22 +1236,22 @@
       <c r="O4" s="1">
         <v>0</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>103</v>
+      <c r="P4" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>36</v>
@@ -1258,16 +1269,16 @@
         <v>90110</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M5" s="1">
         <v>7.0026919999999997</v>
@@ -1278,22 +1289,22 @@
       <c r="O5" s="1">
         <v>0</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>103</v>
+      <c r="P5" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>40</v>
@@ -1311,16 +1322,16 @@
         <v>95000</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M6" s="1">
         <v>6.5510890000000002</v>
@@ -1331,22 +1342,22 @@
       <c r="O6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>103</v>
+      <c r="P6" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>43</v>
@@ -1364,16 +1375,16 @@
         <v>50100</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M7" s="1">
         <v>18.781120000000001</v>
@@ -1384,22 +1395,22 @@
       <c r="O7" s="1">
         <v>0</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>103</v>
+      <c r="P7" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>45</v>
@@ -1417,16 +1428,16 @@
         <v>10500</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M8" s="1">
         <v>13.723876000000001</v>
@@ -1437,22 +1448,22 @@
       <c r="O8" s="1">
         <v>0</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>103</v>
+      <c r="P8" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>48</v>
@@ -1470,16 +1481,16 @@
         <v>10140</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M9" s="1">
         <v>13.686303000000001</v>
@@ -1490,22 +1501,22 @@
       <c r="O9" s="1">
         <v>0</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>103</v>
+      <c r="P9" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>52</v>
@@ -1523,16 +1534,16 @@
         <v>60000</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M10" s="1">
         <v>15.702826999999999</v>
@@ -1543,22 +1554,22 @@
       <c r="O10" s="1">
         <v>0</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>103</v>
+      <c r="P10" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>56</v>
@@ -1576,16 +1587,16 @@
         <v>10100</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M11" s="1">
         <v>13.739537</v>
@@ -1596,25 +1607,25 @@
       <c r="O11" s="1">
         <v>0</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>103</v>
+      <c r="P11" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>58</v>
@@ -1629,16 +1640,16 @@
         <v>10120</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M12" s="1">
         <v>13.720420000000001</v>
@@ -1649,22 +1660,22 @@
       <c r="O12" s="1">
         <v>0</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>103</v>
+      <c r="P12" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>60</v>
@@ -1682,16 +1693,16 @@
         <v>21000</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M13" s="1">
         <v>12.682145</v>
@@ -1702,28 +1713,28 @@
       <c r="O13" s="1">
         <v>0</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>103</v>
+      <c r="P13" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>4</v>
@@ -1735,16 +1746,16 @@
         <v>10160</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M14" s="1">
         <v>13.71307</v>
@@ -1755,22 +1766,22 @@
       <c r="O14" s="1">
         <v>0</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>103</v>
+      <c r="P14" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>62</v>
@@ -1788,16 +1799,16 @@
         <v>12130</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M15" s="1">
         <v>13.962237</v>
@@ -1808,22 +1819,22 @@
       <c r="O15" s="1">
         <v>0</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>103</v>
+      <c r="P15" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>20</v>
@@ -1841,16 +1852,16 @@
         <v>10500</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M16" s="1">
         <v>13.744224000000001</v>
@@ -1861,22 +1872,22 @@
       <c r="O16" s="1">
         <v>0</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>103</v>
+      <c r="P16" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>65</v>
@@ -1894,16 +1905,16 @@
         <v>21130</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M17" s="1">
         <v>12.723402</v>
@@ -1914,31 +1925,31 @@
       <c r="O17" s="1">
         <v>0</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>103</v>
+      <c r="P17" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>68</v>
@@ -1947,16 +1958,16 @@
         <v>74000</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M18" s="1">
         <v>13.590031</v>
@@ -1967,22 +1978,22 @@
       <c r="O18" s="1">
         <v>0</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>103</v>
+      <c r="P18" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>69</v>
@@ -2000,16 +2011,16 @@
         <v>10160</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M19" s="1">
         <v>13.704817</v>
@@ -2020,22 +2031,22 @@
       <c r="O19" s="1">
         <v>0</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>103</v>
+      <c r="P19" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>72</v>
@@ -2053,16 +2064,16 @@
         <v>20110</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M20" s="1">
         <v>13.162651</v>
@@ -2073,22 +2084,22 @@
       <c r="O20" s="1">
         <v>0</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>103</v>
+      <c r="P20" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>74</v>
@@ -2106,16 +2117,16 @@
         <v>10120</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M21" s="1">
         <v>13.69605</v>
@@ -2126,22 +2137,22 @@
       <c r="O21" s="1">
         <v>0</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>103</v>
+      <c r="P21" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>22</v>
@@ -2159,16 +2170,16 @@
         <v>10330</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M22" s="1">
         <v>13.739057000000001</v>
@@ -2179,22 +2190,22 @@
       <c r="O22" s="1">
         <v>0</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>103</v>
+      <c r="P22" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>76</v>
@@ -2212,16 +2223,16 @@
         <v>10310</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M23" s="1">
         <v>13.772365000000001</v>
@@ -2232,22 +2243,22 @@
       <c r="O23" s="1">
         <v>0</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>103</v>
+      <c r="P23" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>78</v>
@@ -2265,16 +2276,16 @@
         <v>10250</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M24" s="1">
         <v>13.733335</v>
@@ -2285,25 +2296,25 @@
       <c r="O24" s="1">
         <v>0</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>103</v>
+      <c r="P24" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>15</v>
@@ -2318,16 +2329,16 @@
         <v>10250</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M25" s="1">
         <v>13.688057000000001</v>
@@ -2338,22 +2349,22 @@
       <c r="O25" s="1">
         <v>0</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>103</v>
+      <c r="P25" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>80</v>
@@ -2371,16 +2382,16 @@
         <v>10400</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M26" s="1">
         <v>13.787800000000001</v>
@@ -2391,22 +2402,22 @@
       <c r="O26" s="1">
         <v>0</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>103</v>
+      <c r="P26" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>82</v>
@@ -2424,16 +2435,16 @@
         <v>21140</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M27" s="1">
         <v>13.019546</v>
@@ -2444,22 +2455,22 @@
       <c r="O27" s="1">
         <v>0</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>103</v>
+      <c r="P27" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>85</v>
@@ -2477,16 +2488,16 @@
         <v>92000</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M28" s="1">
         <v>7.5551310000000003</v>
@@ -2497,22 +2508,22 @@
       <c r="O28" s="1">
         <v>0</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>103</v>
+      <c r="P28" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>88</v>
@@ -2530,16 +2541,16 @@
         <v>10510</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M29" s="1">
         <v>13.8124</v>
@@ -2550,25 +2561,25 @@
       <c r="O29" s="1">
         <v>0</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>103</v>
+      <c r="P29" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>10</v>
@@ -2583,16 +2594,16 @@
         <v>73160</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M30" s="1">
         <v>13.707967</v>
@@ -2603,22 +2614,22 @@
       <c r="O30" s="1">
         <v>0</v>
       </c>
-      <c r="P30" s="1" t="s">
-        <v>103</v>
+      <c r="P30" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>91</v>
@@ -2636,16 +2647,16 @@
         <v>10110</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M31" s="1">
         <v>13.743230000000001</v>
@@ -2656,22 +2667,22 @@
       <c r="O31" s="1">
         <v>0</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>103</v>
+      <c r="P31" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>93</v>
@@ -2689,16 +2700,16 @@
         <v>21150</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M32" s="1">
         <v>12.716531</v>
@@ -2709,25 +2720,25 @@
       <c r="O32" s="1">
         <v>0</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>103</v>
+      <c r="P32" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>26</v>
@@ -2742,16 +2753,16 @@
         <v>20000</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M33" s="1">
         <v>13.337246</v>
@@ -2762,22 +2773,22 @@
       <c r="O33" s="1">
         <v>0</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>103</v>
+      <c r="P33" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>17</v>
@@ -2795,16 +2806,16 @@
         <v>10540</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M34" s="1">
         <v>13.648524</v>
@@ -2815,22 +2826,22 @@
       <c r="O34" s="1">
         <v>0</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>103</v>
+      <c r="P34" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>95</v>
@@ -2848,16 +2859,16 @@
         <v>10110</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M35" s="1">
         <v>13.741744000000001</v>
@@ -2868,25 +2879,25 @@
       <c r="O35" s="1">
         <v>0</v>
       </c>
-      <c r="P35" s="1" t="s">
-        <v>103</v>
+      <c r="P35" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>5</v>
@@ -2901,16 +2912,16 @@
         <v>11000</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M36" s="1">
         <v>13.8657</v>
@@ -2921,22 +2932,22 @@
       <c r="O36" s="1">
         <v>0</v>
       </c>
-      <c r="P36" s="1" t="s">
-        <v>103</v>
+      <c r="P36" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>97</v>
@@ -2954,16 +2965,16 @@
         <v>10400</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M37" s="1">
         <v>13.754111999999999</v>
@@ -2974,25 +2985,25 @@
       <c r="O37" s="1">
         <v>0</v>
       </c>
-      <c r="P37" s="1" t="s">
-        <v>103</v>
+      <c r="P37" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>99</v>
@@ -3007,16 +3018,16 @@
         <v>10110</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M38" s="1">
         <v>13.728609000000001</v>
@@ -3027,17 +3038,17 @@
       <c r="O38" s="1">
         <v>0</v>
       </c>
-      <c r="P38" s="1" t="s">
-        <v>103</v>
+      <c r="P38" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="P2" r:id="rId1"/>
-    <hyperlink ref="P3:P38" r:id="rId2" display="https://ran-ln.tk/saveIMG/bank.jpg"/>
+    <hyperlink ref="P3:P38" r:id="rId2" display="https://ran-ln.tk/2019/saveIMG/uob/pum.jpg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/Pum.xlsx
+++ b/Pum.xlsx
@@ -639,10 +639,10 @@
     <t>37</t>
   </si>
   <si>
-    <t>รออัพเดทจากธนาคาร</t>
-  </si>
-  <si>
     <t>https://ran-ln.tk/2019/saveIMG/uob/pum.jpg</t>
+  </si>
+  <si>
+    <t>เปิดทำการปกติ</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P38"/>
+      <selection activeCell="Q2" sqref="Q2:Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,10 +1131,10 @@
         <v>0</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1290,10 +1290,10 @@
         <v>0</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1502,10 +1502,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1555,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1608,10 +1608,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1661,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1714,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1767,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1820,10 +1820,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1873,10 +1873,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1979,10 +1979,10 @@
         <v>0</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -2032,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -2085,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -2138,10 +2138,10 @@
         <v>0</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -2191,10 +2191,10 @@
         <v>0</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -2297,10 +2297,10 @@
         <v>0</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -2350,10 +2350,10 @@
         <v>0</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -2456,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -2509,10 +2509,10 @@
         <v>0</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -2562,10 +2562,10 @@
         <v>0</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="P30" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -2668,10 +2668,10 @@
         <v>0</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -2827,10 +2827,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -2880,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="P35" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -2933,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -2986,10 +2986,10 @@
         <v>0</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -3039,10 +3039,10 @@
         <v>0</v>
       </c>
       <c r="P38" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
